--- a/Irsa.PDM.MainWebApp/Reports/Rpt_Certificaciones.xlsx
+++ b/Irsa.PDM.MainWebApp/Reports/Rpt_Certificaciones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Pauta</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Estado</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -612,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,19 +631,20 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="38.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="6" max="7" width="40.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -660,8 +667,10 @@
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -673,7 +682,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="8"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -686,8 +695,10 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -697,7 +708,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -710,8 +721,10 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -734,8 +747,10 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
@@ -745,7 +760,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -758,8 +773,10 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:22" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -782,8 +799,10 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -805,9 +824,11 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="5"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
@@ -826,23 +847,27 @@
       <c r="F8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="J8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="L8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -851,9 +876,11 @@
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="12"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="12"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -863,8 +890,9 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -874,12 +902,13 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="D2:J3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Irsa.PDM.MainWebApp/Reports/Rpt_Certificaciones.xlsx
+++ b/Irsa.PDM.MainWebApp/Reports/Rpt_Certificaciones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Pauta</t>
   </si>
@@ -35,9 +35,6 @@
     <t xml:space="preserve">Cod.Campaña  </t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>Ejecutada</t>
   </si>
   <si>
@@ -66,6 +63,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Campaña</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -635,10 +638,10 @@
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="38.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="49" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="29.28515625" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" customWidth="1"/>
@@ -833,42 +836,44 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="I8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="14" t="s">
+      <c r="N8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
